--- a/2/Домашняя работа 2 Базы данных.xlsx
+++ b/2/Домашняя работа 2 Базы данных.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7176" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7176" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="6" sheetId="7" r:id="rId6"/>
     <sheet name="7" sheetId="8" r:id="rId7"/>
     <sheet name="8" sheetId="9" r:id="rId8"/>
+    <sheet name="доп" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$1:$C$14</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="31">
   <si>
     <t>ФИО               </t>
   </si>
@@ -1167,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1627,4 +1628,144 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>